--- a/booksIssuedDatabase.xlsx
+++ b/booksIssuedDatabase.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,48 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>tca2057022</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>gvfd</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>44357</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>44357.42086665509</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>tca2057021</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>155-u-667</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>44357</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>44357.42980526989</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/booksIssuedDatabase.xlsx
+++ b/booksIssuedDatabase.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,48 +454,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>tca2057022</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>gvfd</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>44357</v>
-      </c>
-      <c r="D2" s="3" t="n">
-        <v>44357.42086665509</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>tca2057021</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>155-u-667</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>44357</v>
-      </c>
-      <c r="D3" s="3" t="n">
-        <v>44357.42980526989</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/booksIssuedDatabase.xlsx
+++ b/booksIssuedDatabase.xlsx
@@ -419,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,6 +454,21 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>tca2057022</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>xyz-123</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>44357</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
